--- a/1/1.xlsx
+++ b/1/1.xlsx
@@ -5,36 +5,131 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE45926-6B23-4E77-9397-ADBDB20710B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F31FF3-E5B7-41F3-88F0-7B58C9A492F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pomiary" sheetId="1" r:id="rId1"/>
     <sheet name="Zad" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Lp.</t>
   </si>
   <si>
-    <t>L, cm</t>
-  </si>
-  <si>
     <t>t, s</t>
+  </si>
+  <si>
+    <t>tśr, s</t>
+  </si>
+  <si>
+    <t>odch</t>
+  </si>
+  <si>
+    <t>ua(tśr)</t>
+  </si>
+  <si>
+    <t>fisher 5</t>
+  </si>
+  <si>
+    <t>u(tśr)</t>
+  </si>
+  <si>
+    <t>L, m</t>
+  </si>
+  <si>
+    <t>√L, √m</t>
+  </si>
+  <si>
+    <t>ub(L), m</t>
+  </si>
+  <si>
+    <t>N:</t>
+  </si>
+  <si>
+    <t>T, s</t>
+  </si>
+  <si>
+    <t>u(T), s</t>
+  </si>
+  <si>
+    <t>ub(t), s</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>5,6)</t>
+  </si>
+  <si>
+    <t>7)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>u(a)</t>
+  </si>
+  <si>
+    <t>u(b)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>8)</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>u(g)</t>
+  </si>
+  <si>
+    <t>9)</t>
+  </si>
+  <si>
+    <t>10)</t>
+  </si>
+  <si>
+    <t>|g-g0|</t>
+  </si>
+  <si>
+    <t>k*u(g)</t>
   </si>
 </sst>
 </file>
@@ -58,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,16 +161,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -93,6 +206,1414 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2751088466882819E-2"/>
+          <c:y val="7.9120370370370396E-2"/>
+          <c:w val="0.75506289949050487"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>T(L)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Zad!$P$4:$P$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>5.8100296607102933E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.8072280507427444E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.796008068777456E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.7875788079587587E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.7875788079587587E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.810029660710289E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.8072280507427392E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.8156288317200355E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Zad!$P$4:$P$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>5.8100296607102933E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.8072280507427444E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.796008068777456E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.7875788079587587E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.7875788079587587E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.810029660710289E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.8072280507427392E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.8156288317200355E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Zad!$A$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5.773502691896258E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Zad!$A$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5.773502691896258E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zad!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zad!$O$4:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3457999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89079999999999981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F6C-45B4-B6EA-23B5FF3F498D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>T(√L)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Zad!$P$4:$P$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>5.8100296607102933E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.8072280507427444E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.796008068777456E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.7875788079587587E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.7875788079587587E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.810029660710289E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.8072280507427392E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.8156288317200355E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Zad!$P$4:$P$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>5.8100296607102933E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.8072280507427444E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.796008068777456E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.7875788079587587E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.7875788079587587E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.810029660710289E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.8072280507427392E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.8156288317200355E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Zad!$A$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5.773502691896258E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Zad!$A$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5.773502691896258E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zad!$D$4:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.70710678118654757</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67082039324993692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59160797830996159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54772255750516607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44721359549995793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3872983346207417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zad!$O$4:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3457999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89079999999999981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F6C-45B4-B6EA-23B5FF3F498D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1290262768"/>
+        <c:axId val="1290263248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1290262768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1290263248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1290263248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1290262768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447757</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32563</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B2C788-8EC7-7FE4-1461-4446ABB0BBAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,34 +1879,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H8"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="6.7265625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -403,34 +1924,188 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14.11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14.11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>14.13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D4" s="1">
+        <v>13.46</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13.47</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13.44</v>
+      </c>
+      <c r="G4" s="1">
+        <v>13.46</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12.71</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12.71</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12.71</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12.69</v>
+      </c>
+      <c r="H5" s="1">
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11.85</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11.02</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11.01</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11.01</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11.01</v>
+      </c>
+      <c r="H7" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8.91</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8.92</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8.91</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.89</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.73</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.73</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.72</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7.72</v>
       </c>
     </row>
   </sheetData>
@@ -443,17 +2118,771 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE558D6-0013-4279-ABD3-653D2E89192F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C36" sqref="C35:C36"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="6.1796875" style="1" customWidth="1"/>
+    <col min="10" max="12" width="5.81640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.36328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="1"/>
+    <col min="15" max="17" width="7" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <f>0.001/SQRT(3)</f>
+        <v>5.773502691896258E-4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>Pomiary!D1</f>
+        <v>t, s</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>Pomiary!B2</f>
+        <v>Lp.</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>Pomiary!C2</f>
+        <v>L, m</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Pomiary!D2</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f>Pomiary!E2</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <f>Pomiary!F2</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <f>Pomiary!G2</f>
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <f>Pomiary!H2</f>
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1.141</v>
+      </c>
+      <c r="B4" s="1">
+        <f>Pomiary!B3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Pomiary!C3</f>
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SQRT(C4)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Pomiary!D3</f>
+        <v>14.11</v>
+      </c>
+      <c r="F4" s="1">
+        <f>Pomiary!E3</f>
+        <v>14.11</v>
+      </c>
+      <c r="G4" s="1">
+        <f>Pomiary!F3</f>
+        <v>14.1</v>
+      </c>
+      <c r="H4" s="1">
+        <f>Pomiary!G3</f>
+        <v>14.13</v>
+      </c>
+      <c r="I4" s="1">
+        <f>Pomiary!H3</f>
+        <v>14.12</v>
+      </c>
+      <c r="J4" s="1">
+        <f>AVERAGE(E4:I4)</f>
+        <v>14.114000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <f>STDEVA(E4:I4)</f>
+        <v>1.140175425099176E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f>K4*$A$4/SQRT(5-1)</f>
+        <v>6.5047008001907995E-3</v>
+      </c>
+      <c r="M4" s="1">
+        <f>SQRT(L4^2+$A$6^2)</f>
+        <v>5.8100296607102933E-2</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f>_xlfn.CONCAT(FIXED(J4,RIGHT(TEXT(M4,"0,00E+00"),2)+1,TRUE),"(",LEFT(M4*10^LEN(M4),2),")")</f>
+        <v>14,114(58)</v>
+      </c>
+      <c r="O4" s="1">
+        <f>J4/$A$8</f>
+        <v>1.4114</v>
+      </c>
+      <c r="P4" s="1">
+        <f>M4/$A$8</f>
+        <v>5.8100296607102933E-3</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f>_xlfn.CONCAT(FIXED(O4,RIGHT(TEXT(P4,"0,00E+00"),2)+1,TRUE),"(",LEFT(P4*10^LEN(M4),2),")")</f>
+        <v>1,4114(58)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <f>Pomiary!B4</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Pomiary!C4</f>
+        <v>0.45</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D11" si="0">SQRT(C5)</f>
+        <v>0.67082039324993692</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Pomiary!D4</f>
+        <v>13.46</v>
+      </c>
+      <c r="F5" s="1">
+        <f>Pomiary!E4</f>
+        <v>13.47</v>
+      </c>
+      <c r="G5" s="1">
+        <f>Pomiary!F4</f>
+        <v>13.44</v>
+      </c>
+      <c r="H5" s="1">
+        <f>Pomiary!G4</f>
+        <v>13.46</v>
+      </c>
+      <c r="I5" s="1">
+        <f>Pomiary!H4</f>
+        <v>13.46</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J8" si="1">AVERAGE(E5:I5)</f>
+        <v>13.457999999999998</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K8" si="2">STDEVA(E5:I5)</f>
+        <v>1.0954451150103819E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L11" si="3">K5*$A$4/SQRT(5-1)</f>
+        <v>6.2495143811342286E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" ref="M5:M11" si="4">SQRT(L5^2+$A$6^2)</f>
+        <v>5.8072280507427444E-2</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" ref="N5:N8" si="5">_xlfn.CONCAT(FIXED(J5,RIGHT(TEXT(M5,"0,00E+00"),2)+1,TRUE),"(",LEFT(M5*10^LEN(M5),2),")")</f>
+        <v>13,458(58)</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:O11" si="6">J5/$A$8</f>
+        <v>1.3457999999999999</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" ref="P5:P11" si="7">M5/$A$8</f>
+        <v>5.8072280507427444E-3</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" ref="Q5:Q11" si="8">_xlfn.CONCAT(FIXED(O5,RIGHT(TEXT(P5,"0,00E+00"),2)+1,TRUE),"(",LEFT(P5*10^LEN(M5),2),")")</f>
+        <v>1,3458(58)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <f>0.1/SQRT(3)</f>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="B6" s="1">
+        <f>Pomiary!B5</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Pomiary!C5</f>
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Pomiary!D5</f>
+        <v>12.71</v>
+      </c>
+      <c r="F6" s="1">
+        <f>Pomiary!E5</f>
+        <v>12.71</v>
+      </c>
+      <c r="G6" s="1">
+        <f>Pomiary!F5</f>
+        <v>12.71</v>
+      </c>
+      <c r="H6" s="1">
+        <f>Pomiary!G5</f>
+        <v>12.69</v>
+      </c>
+      <c r="I6" s="1">
+        <f>Pomiary!H5</f>
+        <v>12.71</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>12.706</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9442719099997632E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>5.1027071246548652E-3</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7960080687774564E-2</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>12,706(57)</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2706</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="7"/>
+        <v>5.796008068777456E-3</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>1,2706(57)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <f>Pomiary!B6</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Pomiary!C6</f>
+        <v>0.35</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.59160797830996159</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Pomiary!D6</f>
+        <v>11.86</v>
+      </c>
+      <c r="F7" s="1">
+        <f>Pomiary!E6</f>
+        <v>11.86</v>
+      </c>
+      <c r="G7" s="1">
+        <f>Pomiary!F6</f>
+        <v>11.86</v>
+      </c>
+      <c r="H7" s="1">
+        <f>Pomiary!G6</f>
+        <v>11.85</v>
+      </c>
+      <c r="I7" s="1">
+        <f>Pomiary!H6</f>
+        <v>11.87</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>11.86</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>7.0710678118653244E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0340441866691676E-3</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7875788079587591E-2</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>11,860(57)</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="7"/>
+        <v>5.7875788079587587E-3</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>1,1860(57)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <f>Pomiary!B7</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Pomiary!C7</f>
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="E8" s="1">
+        <f>Pomiary!D7</f>
+        <v>11.02</v>
+      </c>
+      <c r="F8" s="1">
+        <f>Pomiary!E7</f>
+        <v>11.01</v>
+      </c>
+      <c r="G8" s="1">
+        <f>Pomiary!F7</f>
+        <v>11.01</v>
+      </c>
+      <c r="H8" s="1">
+        <f>Pomiary!G7</f>
+        <v>11.01</v>
+      </c>
+      <c r="I8" s="1">
+        <f>Pomiary!H7</f>
+        <v>11</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>11.01</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>7.0710678118653244E-3</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0340441866691676E-3</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7875788079587591E-2</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>11,010(57)</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="6"/>
+        <v>1.101</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="7"/>
+        <v>5.7875788079587587E-3</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>1,1010(57)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <f>Pomiary!B8</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Pomiary!C8</f>
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1">
+        <f>Pomiary!D8</f>
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F9" s="1">
+        <f>Pomiary!E8</f>
+        <v>9.98</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Pomiary!F8</f>
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <f>Pomiary!G8</f>
+        <v>9.99</v>
+      </c>
+      <c r="I9" s="1">
+        <f>Pomiary!H8</f>
+        <v>9.99</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" ref="J9:J11" si="9">AVERAGE(E9:I9)</f>
+        <v>9.9860000000000007</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" ref="K9:K11" si="10">STDEVA(E9:I9)</f>
+        <v>1.1401754250991138E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>6.5047008001904438E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="4"/>
+        <v>5.8100296607102891E-2</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" ref="N9:N11" si="11">_xlfn.CONCAT(FIXED(J9,RIGHT(TEXT(M9,"0,00E+00"),2)+1,TRUE),"(",LEFT(M9*10^LEN(M9),2),")")</f>
+        <v>9,986(58)</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="7"/>
+        <v>5.810029660710289E-3</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>0,9986(58)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <f>Pomiary!B9</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <f>Pomiary!C9</f>
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44721359549995793</v>
+      </c>
+      <c r="E10" s="1">
+        <f>Pomiary!D9</f>
+        <v>8.91</v>
+      </c>
+      <c r="F10" s="1">
+        <f>Pomiary!E9</f>
+        <v>8.92</v>
+      </c>
+      <c r="G10" s="1">
+        <f>Pomiary!F9</f>
+        <v>8.91</v>
+      </c>
+      <c r="H10" s="1">
+        <f>Pomiary!G9</f>
+        <v>8.89</v>
+      </c>
+      <c r="I10" s="1">
+        <f>Pomiary!H9</f>
+        <v>8.91</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="9"/>
+        <v>8.9079999999999977</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="10"/>
+        <v>1.0954451150103088E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2495143811338123E-3</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="4"/>
+        <v>5.8072280507427396E-2</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>8,908(58)</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.89079999999999981</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="7"/>
+        <v>5.8072280507427392E-3</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>0,8908(58)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <f>Pomiary!B10</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <f>Pomiary!C10</f>
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="E11" s="1">
+        <f>Pomiary!D10</f>
+        <v>7.73</v>
+      </c>
+      <c r="F11" s="1">
+        <f>Pomiary!E10</f>
+        <v>7.7</v>
+      </c>
+      <c r="G11" s="1">
+        <f>Pomiary!F10</f>
+        <v>7.73</v>
+      </c>
+      <c r="H11" s="1">
+        <f>Pomiary!G10</f>
+        <v>7.72</v>
+      </c>
+      <c r="I11" s="1">
+        <f>Pomiary!H10</f>
+        <v>7.72</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="9"/>
+        <v>7.7200000000000006</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2247448713915992E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9871694912890733E-3</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="4"/>
+        <v>5.8156288317200357E-2</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>7,720(58)</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="6"/>
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="7"/>
+        <v>5.8156288317200355E-3</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>0,7720(58)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q16" s="1">
+        <f t="array" ref="Q16:R18">LINEST(O4:O11,D4:D11,TRUE,TRUE)</f>
+        <v>2.016381995105005</v>
+      </c>
+      <c r="R16" s="1">
+        <v>-8.2138624545089467E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="P17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1.2974624161693095E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>7.396673809529985E-3</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="P18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.99975163675508094</v>
+      </c>
+      <c r="R18" s="1">
+        <v>3.8151920491436074E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="P21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="P22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="P23" s="1">
+        <f>4*PI()*PI()/Q16/Q16</f>
+        <v>9.7098856421016517</v>
+      </c>
+      <c r="Q23" s="1">
+        <f>SQRT((-8*PI()*PI()/Q16/Q16/Q16*Q17)^2)</f>
+        <v>0.12495858142467527</v>
+      </c>
+      <c r="R23" s="1" t="str">
+        <f>_xlfn.CONCAT(FIXED(P23,RIGHT(TEXT(Q23,"0,00E+00"),2)+1,TRUE),"(",LEFT(Q23*10^LEN(Q23),2),")")</f>
+        <v>9,71(12)</v>
+      </c>
+    </row>
+    <row r="25" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="P25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="P26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="P27" s="3">
+        <f>ABS(P23-9.8)</f>
+        <v>9.0114357898348985E-2</v>
+      </c>
+      <c r="Q27" s="3">
+        <f>2*Q23</f>
+        <v>0.24991716284935053</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/1/1.xlsx
+++ b/1/1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F31FF3-E5B7-41F3-88F0-7B58C9A492F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15556C0-C70F-4F8D-94E5-A1FAA34B5C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pomiary" sheetId="1" r:id="rId1"/>
     <sheet name="Zad" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Lp.</t>
   </si>
@@ -130,12 +131,69 @@
   </si>
   <si>
     <t>k*u(g)</t>
+  </si>
+  <si>
+    <t>kulka w cm</t>
+  </si>
+  <si>
+    <t>L, cm</t>
+  </si>
+  <si>
+    <t>14,114(58)</t>
+  </si>
+  <si>
+    <t>13,458(58)</t>
+  </si>
+  <si>
+    <t>12,706(57)</t>
+  </si>
+  <si>
+    <t>11,860(57)</t>
+  </si>
+  <si>
+    <t>11,010(57)</t>
+  </si>
+  <si>
+    <t>9,986(58)</t>
+  </si>
+  <si>
+    <t>8,908(58)</t>
+  </si>
+  <si>
+    <t>7,720(58)</t>
+  </si>
+  <si>
+    <t>1,4114(58)</t>
+  </si>
+  <si>
+    <t>1,3458(58)</t>
+  </si>
+  <si>
+    <t>1,2706(57)</t>
+  </si>
+  <si>
+    <t>1,1860(57)</t>
+  </si>
+  <si>
+    <t>1,1010(57)</t>
+  </si>
+  <si>
+    <t>0,9986(58)</t>
+  </si>
+  <si>
+    <t>0,8908(58)</t>
+  </si>
+  <si>
+    <t>0,7720(58)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,15 +238,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -259,10 +326,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.2751088466882819E-2"/>
-          <c:y val="7.9120370370370396E-2"/>
-          <c:w val="0.75506289949050487"/>
-          <c:h val="0.62271617089530473"/>
+          <c:x val="8.6163648554653749E-2"/>
+          <c:y val="0.10308309865030968"/>
+          <c:w val="0.75108994802326023"/>
+          <c:h val="0.82493062236617087"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -391,7 +458,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>5.773502691896258E-4</c:v>
+                    <c:v>2.3094010767585032E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -403,7 +470,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>5.773502691896258E-4</c:v>
+                    <c:v>2.3094010767585032E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -426,31 +493,31 @@
             <c:numRef>
               <c:f>Zad!$C$4:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.45100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.40100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35</c:v>
+                  <c:v>0.35100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3</c:v>
+                  <c:v>0.311</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>0.251</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,7 +700,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>5.773502691896258E-4</c:v>
+                    <c:v>2.3094010767585032E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -645,7 +712,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>5.773502691896258E-4</c:v>
+                    <c:v>2.3094010767585032E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -668,31 +735,31 @@
             <c:numRef>
               <c:f>Zad!$D$4:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.70710678118654757</c:v>
+                  <c:v>0.70781353476745557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67082039324993692</c:v>
+                  <c:v>0.67156533561523257</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63245553203367588</c:v>
+                  <c:v>0.63324560795950258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59160797830996159</c:v>
+                  <c:v>0.59245252974394502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54772255750516607</c:v>
+                  <c:v>0.55767373974394741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.5009990019950139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44721359549995793</c:v>
+                  <c:v>0.44833023542919792</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3872983346207417</c:v>
+                  <c:v>0.38858718455450897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,7 +868,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1580,15 +1647,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>98424</xdr:rowOff>
+      <xdr:rowOff>98423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>447757</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>32563</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>187243</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1879,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H10"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C3" sqref="C3:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1892,16 +1959,23 @@
     <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <f>2.2/2</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1924,193 +1998,578 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0.5</v>
+        <f>($A$1+C15)/100</f>
+        <v>0.501</v>
       </c>
       <c r="D3" s="1">
-        <v>14.11</v>
+        <f>D15</f>
+        <v>14.29</v>
       </c>
       <c r="E3" s="1">
-        <v>14.11</v>
+        <f t="shared" ref="E3:H3" si="0">E15</f>
+        <v>14.28</v>
       </c>
       <c r="F3" s="1">
-        <v>14.1</v>
+        <f t="shared" si="0"/>
+        <v>14.28</v>
       </c>
       <c r="G3" s="1">
-        <v>14.13</v>
+        <f t="shared" si="0"/>
+        <v>14.28</v>
       </c>
       <c r="H3" s="1">
-        <v>14.12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>0.45</v>
+        <f t="shared" ref="C4:C10" si="1">($A$1+C16)/100</f>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>13.46</v>
+        <f t="shared" ref="D4:H10" si="2">D16</f>
+        <v>13.39</v>
       </c>
       <c r="E4" s="1">
-        <v>13.47</v>
+        <f t="shared" si="2"/>
+        <v>13.4</v>
       </c>
       <c r="F4" s="1">
-        <v>13.44</v>
+        <f t="shared" si="2"/>
+        <v>13.39</v>
       </c>
       <c r="G4" s="1">
-        <v>13.46</v>
+        <f t="shared" si="2"/>
+        <v>13.4</v>
       </c>
       <c r="H4" s="1">
-        <v>13.46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>0.4</v>
+        <f t="shared" si="1"/>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>12.71</v>
+        <f t="shared" si="2"/>
+        <v>12.67</v>
       </c>
       <c r="E5" s="1">
-        <v>12.71</v>
+        <f t="shared" si="2"/>
+        <v>12.65</v>
       </c>
       <c r="F5" s="1">
-        <v>12.71</v>
+        <f t="shared" si="2"/>
+        <v>12.67</v>
       </c>
       <c r="G5" s="1">
-        <v>12.69</v>
+        <f t="shared" si="2"/>
+        <v>12.67</v>
       </c>
       <c r="H5" s="1">
-        <v>12.71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>0.35</v>
+        <f t="shared" si="1"/>
+        <v>0.35100000000000003</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>11.88</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>11.88</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
         <v>11.86</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
         <v>11.86</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
         <v>11.86</v>
       </c>
-      <c r="G6" s="1">
-        <v>11.85</v>
-      </c>
-      <c r="H6" s="1">
-        <v>11.87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>0.311</v>
       </c>
       <c r="D7" s="1">
-        <v>11.02</v>
+        <f t="shared" si="2"/>
+        <v>11.17</v>
       </c>
       <c r="E7" s="1">
-        <v>11.01</v>
+        <f t="shared" si="2"/>
+        <v>11.17</v>
       </c>
       <c r="F7" s="1">
-        <v>11.01</v>
+        <f t="shared" si="2"/>
+        <v>11.16</v>
       </c>
       <c r="G7" s="1">
-        <v>11.01</v>
+        <f t="shared" si="2"/>
+        <v>11.17</v>
       </c>
       <c r="H7" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>0.25</v>
+        <f t="shared" si="1"/>
+        <v>0.251</v>
       </c>
       <c r="D8" s="1">
-        <v>9.9700000000000006</v>
+        <f t="shared" si="2"/>
+        <v>10.039999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>9.98</v>
+        <f t="shared" si="2"/>
+        <v>10.06</v>
       </c>
       <c r="F8" s="1">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>10.06</v>
       </c>
       <c r="G8" s="1">
-        <v>9.99</v>
+        <f t="shared" si="2"/>
+        <v>10.039999999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>10.029999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>8.91</v>
+        <f t="shared" si="2"/>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E9" s="1">
-        <v>8.92</v>
+        <f t="shared" si="2"/>
+        <v>8.94</v>
       </c>
       <c r="F9" s="1">
-        <v>8.91</v>
+        <f t="shared" si="2"/>
+        <v>8.93</v>
       </c>
       <c r="G9" s="1">
-        <v>8.89</v>
+        <f t="shared" si="2"/>
+        <v>8.9600000000000009</v>
       </c>
       <c r="H9" s="1">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>0.15</v>
+        <f t="shared" si="1"/>
+        <v>0.151</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>7.76</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>7.75</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>7.75</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>7.78</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="P14" s="1">
+        <v>14.11</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>14.11</v>
+      </c>
+      <c r="R14" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>14.13</v>
+      </c>
+      <c r="T14" s="1">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14.29</v>
+      </c>
+      <c r="E15" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="G15" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="H15" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="P15" s="1">
+        <v>13.46</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>13.47</v>
+      </c>
+      <c r="R15" s="1">
+        <v>13.44</v>
+      </c>
+      <c r="S15" s="1">
+        <v>13.46</v>
+      </c>
+      <c r="T15" s="1">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1">
+        <v>13.39</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13.39</v>
+      </c>
+      <c r="G16" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="P16" s="1">
+        <v>12.71</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>12.71</v>
+      </c>
+      <c r="R16" s="1">
+        <v>12.71</v>
+      </c>
+      <c r="S16" s="1">
+        <v>12.69</v>
+      </c>
+      <c r="T16" s="1">
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12.67</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12.65</v>
+      </c>
+      <c r="F17" s="1">
+        <v>12.67</v>
+      </c>
+      <c r="G17" s="1">
+        <v>12.67</v>
+      </c>
+      <c r="H17" s="1">
+        <v>12.67</v>
+      </c>
+      <c r="P17" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="R17" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="S17" s="1">
+        <v>11.85</v>
+      </c>
+      <c r="T17" s="1">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11.88</v>
+      </c>
+      <c r="E18" s="1">
+        <v>11.88</v>
+      </c>
+      <c r="F18" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="G18" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="H18" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="P18" s="1">
+        <v>11.02</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>11.01</v>
+      </c>
+      <c r="R18" s="1">
+        <v>11.01</v>
+      </c>
+      <c r="S18" s="1">
+        <v>11.01</v>
+      </c>
+      <c r="T18" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11.17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11.17</v>
+      </c>
+      <c r="F19" s="1">
+        <v>11.16</v>
+      </c>
+      <c r="G19" s="1">
+        <v>11.17</v>
+      </c>
+      <c r="H19" s="1">
+        <v>11.17</v>
+      </c>
+      <c r="P19" s="1">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="R19" s="1">
+        <v>10</v>
+      </c>
+      <c r="S19" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="T19" s="1">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10.06</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10.06</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="P20" s="1">
+        <v>8.91</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>8.92</v>
+      </c>
+      <c r="R20" s="1">
+        <v>8.91</v>
+      </c>
+      <c r="S20" s="1">
+        <v>8.89</v>
+      </c>
+      <c r="T20" s="1">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.94</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="H21" s="1">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="P21" s="1">
         <v>7.73</v>
       </c>
-      <c r="E10" s="1">
+      <c r="Q21" s="1">
         <v>7.7</v>
       </c>
-      <c r="F10" s="1">
+      <c r="R21" s="1">
         <v>7.73</v>
       </c>
-      <c r="G10" s="1">
+      <c r="S21" s="1">
         <v>7.72</v>
       </c>
-      <c r="H10" s="1">
+      <c r="T21" s="1">
         <v>7.72</v>
       </c>
     </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7.76</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.78</v>
+      </c>
+      <c r="H22" s="1">
+        <v>7.77</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2120,15 +2579,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE558D6-0013-4279-ABD3-653D2E89192F}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="78" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="6.1796875" style="1" customWidth="1"/>
     <col min="10" max="12" width="5.81640625" style="1" customWidth="1"/>
@@ -2145,20 +2604,20 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <f>0.001/SQRT(3)</f>
-        <v>5.773502691896258E-4</v>
+        <f>0.004/SQRT(3)</f>
+        <v>2.3094010767585032E-3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="3" t="str">
         <f>Pomiary!D1</f>
         <v>t, s</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2234,32 +2693,32 @@
         <f>Pomiary!B3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <f>Pomiary!C3</f>
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="1">
+        <v>0.501</v>
+      </c>
+      <c r="D4" s="4">
         <f>SQRT(C4)</f>
-        <v>0.70710678118654757</v>
+        <v>0.70781353476745557</v>
       </c>
       <c r="E4" s="1">
-        <f>Pomiary!D3</f>
+        <f>Pomiary!P14</f>
         <v>14.11</v>
       </c>
       <c r="F4" s="1">
-        <f>Pomiary!E3</f>
+        <f>Pomiary!Q14</f>
         <v>14.11</v>
       </c>
       <c r="G4" s="1">
-        <f>Pomiary!F3</f>
+        <f>Pomiary!R14</f>
         <v>14.1</v>
       </c>
       <c r="H4" s="1">
-        <f>Pomiary!G3</f>
+        <f>Pomiary!S14</f>
         <v>14.13</v>
       </c>
       <c r="I4" s="1">
-        <f>Pomiary!H3</f>
+        <f>Pomiary!T14</f>
         <v>14.12</v>
       </c>
       <c r="J4" s="1">
@@ -2296,39 +2755,39 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1">
         <f>Pomiary!B4</f>
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <f>Pomiary!C4</f>
-        <v>0.45</v>
-      </c>
-      <c r="D5" s="1">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" ref="D5:D11" si="0">SQRT(C5)</f>
-        <v>0.67082039324993692</v>
+        <v>0.67156533561523257</v>
       </c>
       <c r="E5" s="1">
-        <f>Pomiary!D4</f>
+        <f>Pomiary!P15</f>
         <v>13.46</v>
       </c>
       <c r="F5" s="1">
-        <f>Pomiary!E4</f>
+        <f>Pomiary!Q15</f>
         <v>13.47</v>
       </c>
       <c r="G5" s="1">
-        <f>Pomiary!F4</f>
+        <f>Pomiary!R15</f>
         <v>13.44</v>
       </c>
       <c r="H5" s="1">
-        <f>Pomiary!G4</f>
+        <f>Pomiary!S15</f>
         <v>13.46</v>
       </c>
       <c r="I5" s="1">
-        <f>Pomiary!H4</f>
+        <f>Pomiary!T15</f>
         <v>13.46</v>
       </c>
       <c r="J5" s="1">
@@ -2365,7 +2824,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f>0.1/SQRT(3)</f>
         <v>5.7735026918962581E-2</v>
       </c>
@@ -2373,32 +2832,32 @@
         <f>Pomiary!B5</f>
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <f>Pomiary!C5</f>
-        <v>0.4</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>0.63245553203367588</v>
+        <v>0.63324560795950258</v>
       </c>
       <c r="E6" s="1">
-        <f>Pomiary!D5</f>
+        <f>Pomiary!P16</f>
         <v>12.71</v>
       </c>
       <c r="F6" s="1">
-        <f>Pomiary!E5</f>
+        <f>Pomiary!Q16</f>
         <v>12.71</v>
       </c>
       <c r="G6" s="1">
-        <f>Pomiary!F5</f>
+        <f>Pomiary!R16</f>
         <v>12.71</v>
       </c>
       <c r="H6" s="1">
-        <f>Pomiary!G5</f>
+        <f>Pomiary!S16</f>
         <v>12.69</v>
       </c>
       <c r="I6" s="1">
-        <f>Pomiary!H5</f>
+        <f>Pomiary!T16</f>
         <v>12.71</v>
       </c>
       <c r="J6" s="1">
@@ -2442,32 +2901,32 @@
         <f>Pomiary!B6</f>
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <f>Pomiary!C6</f>
-        <v>0.35</v>
-      </c>
-      <c r="D7" s="1">
+        <v>0.35100000000000003</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>0.59160797830996159</v>
+        <v>0.59245252974394502</v>
       </c>
       <c r="E7" s="1">
-        <f>Pomiary!D6</f>
+        <f>Pomiary!P17</f>
         <v>11.86</v>
       </c>
       <c r="F7" s="1">
-        <f>Pomiary!E6</f>
+        <f>Pomiary!Q17</f>
         <v>11.86</v>
       </c>
       <c r="G7" s="1">
-        <f>Pomiary!F6</f>
+        <f>Pomiary!R17</f>
         <v>11.86</v>
       </c>
       <c r="H7" s="1">
-        <f>Pomiary!G6</f>
+        <f>Pomiary!S17</f>
         <v>11.85</v>
       </c>
       <c r="I7" s="1">
-        <f>Pomiary!H6</f>
+        <f>Pomiary!T17</f>
         <v>11.87</v>
       </c>
       <c r="J7" s="1">
@@ -2511,32 +2970,32 @@
         <f>Pomiary!B7</f>
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <f>Pomiary!C7</f>
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="1">
+        <v>0.311</v>
+      </c>
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>0.54772255750516607</v>
+        <v>0.55767373974394741</v>
       </c>
       <c r="E8" s="1">
-        <f>Pomiary!D7</f>
+        <f>Pomiary!P18</f>
         <v>11.02</v>
       </c>
       <c r="F8" s="1">
-        <f>Pomiary!E7</f>
+        <f>Pomiary!Q18</f>
         <v>11.01</v>
       </c>
       <c r="G8" s="1">
-        <f>Pomiary!F7</f>
+        <f>Pomiary!R18</f>
         <v>11.01</v>
       </c>
       <c r="H8" s="1">
-        <f>Pomiary!G7</f>
+        <f>Pomiary!S18</f>
         <v>11.01</v>
       </c>
       <c r="I8" s="1">
-        <f>Pomiary!H7</f>
+        <f>Pomiary!T18</f>
         <v>11</v>
       </c>
       <c r="J8" s="1">
@@ -2577,32 +3036,32 @@
         <f>Pomiary!B8</f>
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <f>Pomiary!C8</f>
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.5009990019950139</v>
       </c>
       <c r="E9" s="1">
-        <f>Pomiary!D8</f>
+        <f>Pomiary!P19</f>
         <v>9.9700000000000006</v>
       </c>
       <c r="F9" s="1">
-        <f>Pomiary!E8</f>
+        <f>Pomiary!Q19</f>
         <v>9.98</v>
       </c>
       <c r="G9" s="1">
-        <f>Pomiary!F8</f>
+        <f>Pomiary!R19</f>
         <v>10</v>
       </c>
       <c r="H9" s="1">
-        <f>Pomiary!G8</f>
+        <f>Pomiary!S19</f>
         <v>9.99</v>
       </c>
       <c r="I9" s="1">
-        <f>Pomiary!H8</f>
+        <f>Pomiary!T19</f>
         <v>9.99</v>
       </c>
       <c r="J9" s="1">
@@ -2643,32 +3102,32 @@
         <f>Pomiary!B9</f>
         <v>7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <f>Pomiary!C9</f>
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>0.44721359549995793</v>
+        <v>0.44833023542919792</v>
       </c>
       <c r="E10" s="1">
-        <f>Pomiary!D9</f>
+        <f>Pomiary!P20</f>
         <v>8.91</v>
       </c>
       <c r="F10" s="1">
-        <f>Pomiary!E9</f>
+        <f>Pomiary!Q20</f>
         <v>8.92</v>
       </c>
       <c r="G10" s="1">
-        <f>Pomiary!F9</f>
+        <f>Pomiary!R20</f>
         <v>8.91</v>
       </c>
       <c r="H10" s="1">
-        <f>Pomiary!G9</f>
+        <f>Pomiary!S20</f>
         <v>8.89</v>
       </c>
       <c r="I10" s="1">
-        <f>Pomiary!H9</f>
+        <f>Pomiary!T20</f>
         <v>8.91</v>
       </c>
       <c r="J10" s="1">
@@ -2709,32 +3168,32 @@
         <f>Pomiary!B10</f>
         <v>8</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <f>Pomiary!C10</f>
-        <v>0.15</v>
-      </c>
-      <c r="D11" s="1">
+        <v>0.151</v>
+      </c>
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>0.3872983346207417</v>
+        <v>0.38858718455450897</v>
       </c>
       <c r="E11" s="1">
-        <f>Pomiary!D10</f>
+        <f>Pomiary!P21</f>
         <v>7.73</v>
       </c>
       <c r="F11" s="1">
-        <f>Pomiary!E10</f>
+        <f>Pomiary!Q21</f>
         <v>7.7</v>
       </c>
       <c r="G11" s="1">
-        <f>Pomiary!F10</f>
+        <f>Pomiary!R21</f>
         <v>7.73</v>
       </c>
       <c r="H11" s="1">
-        <f>Pomiary!G10</f>
+        <f>Pomiary!S21</f>
         <v>7.72</v>
       </c>
       <c r="I11" s="1">
-        <f>Pomiary!H10</f>
+        <f>Pomiary!T21</f>
         <v>7.72</v>
       </c>
       <c r="J11" s="1">
@@ -2781,45 +3240,45 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="Q16" s="1">
+      <c r="Q16" s="2">
         <f t="array" ref="Q16:R18">LINEST(O4:O11,D4:D11,TRUE,TRUE)</f>
-        <v>2.016381995105005</v>
-      </c>
-      <c r="R16" s="1">
-        <v>-8.2138624545089467E-3</v>
+        <v>2.0215077668947425</v>
+      </c>
+      <c r="R16" s="2">
+        <v>-1.5241704997084327E-2</v>
       </c>
     </row>
     <row r="17" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="1">
-        <v>1.2974624161693095E-2</v>
-      </c>
-      <c r="R17" s="1">
-        <v>7.396673809529985E-3</v>
-      </c>
-      <c r="S17" s="1" t="s">
+      <c r="Q17" s="2">
+        <v>1.982691067401279E-2</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1.1342136708087066E-2</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="1">
-        <v>0.99975163675508094</v>
-      </c>
-      <c r="R18" s="1">
-        <v>3.8151920491436074E-3</v>
+      <c r="Q18" s="2">
+        <v>0.99942315394296433</v>
+      </c>
+      <c r="R18" s="2">
+        <v>5.8143705495192922E-3</v>
       </c>
     </row>
     <row r="21" spans="16:19" x14ac:dyDescent="0.35">
@@ -2834,25 +3293,25 @@
       <c r="P22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <f>4*PI()*PI()/Q16/Q16</f>
-        <v>9.7098856421016517</v>
-      </c>
-      <c r="Q23" s="1">
+        <v>9.66070694585515</v>
+      </c>
+      <c r="Q23" s="2">
         <f>SQRT((-8*PI()*PI()/Q16/Q16/Q16*Q17)^2)</f>
-        <v>0.12495858142467527</v>
-      </c>
-      <c r="R23" s="1" t="str">
+        <v>0.18950406899253663</v>
+      </c>
+      <c r="R23" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(P23,RIGHT(TEXT(Q23,"0,00E+00"),2)+1,TRUE),"(",LEFT(Q23*10^LEN(Q23),2),")")</f>
-        <v>9,71(12)</v>
+        <v>9,66(18)</v>
       </c>
     </row>
     <row r="25" spans="16:19" x14ac:dyDescent="0.35">
@@ -2861,21 +3320,21 @@
       </c>
     </row>
     <row r="26" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="P27" s="3">
+      <c r="P27" s="2">
         <f>ABS(P23-9.8)</f>
-        <v>9.0114357898348985E-2</v>
-      </c>
-      <c r="Q27" s="3">
+        <v>0.13929305414485071</v>
+      </c>
+      <c r="Q27" s="2">
         <f>2*Q23</f>
-        <v>0.24991716284935053</v>
+        <v>0.37900813798507327</v>
       </c>
     </row>
   </sheetData>
@@ -2885,4 +3344,179 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D360E73-0E22-409E-BDF5-7694A25EBB98}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>0.501</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.70781353476745557</v>
+      </c>
+      <c r="C2" s="6">
+        <v>6.5047008001907995E-3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.67156533561523257</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6.2495143811342286E-3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.63324560795950258</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5.1027071246548652E-3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>0.35100000000000003</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.59245252974394502</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4.0340441866691676E-3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>0.311</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.55767373974394741</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4.0340441866691676E-3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>0.251</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.5009990019950139</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6.5047008001904438E-3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.44833023542919792</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6.2495143811338123E-3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>0.151</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.38858718455450897</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6.9871694912890733E-3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1/1.xlsx
+++ b/1/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15556C0-C70F-4F8D-94E5-A1FAA34B5C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9F4572-6197-42D2-8398-E0292D259BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1875" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pomiary" sheetId="1" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,6 +253,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -290,6 +290,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zadanie 5. Zależność </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>T(L)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -315,7 +344,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -361,6 +390,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -562,9 +606,434 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1290262768"/>
+        <c:axId val="1290263248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1290262768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.55000000000000004"/>
+          <c:min val="0.15000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>L, m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1290263248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1290263248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T, s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1290262768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Zadanie 6. Zależność</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>√L, √m </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6163648554653749E-2"/>
+          <c:y val="0.10308309865030968"/>
+          <c:w val="0.75108994802326023"/>
+          <c:h val="0.82493062236617087"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>T(√L)</c:v>
           </c:tx>
@@ -800,7 +1269,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1F6C-45B4-B6EA-23B5FF3F498D}"/>
+              <c16:uniqueId val="{00000002-A98A-401E-85C5-6745A545D84A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -819,8 +1288,8 @@
         <c:axId val="1290262768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.8"/>
-          <c:min val="0.1"/>
+          <c:max val="0.75000000000000011"/>
+          <c:min val="0.35000000000000003"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -839,6 +1308,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>√L, √m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -864,7 +1358,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -902,7 +1396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1290263248"/>
@@ -933,6 +1427,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T, s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -958,7 +1477,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -996,7 +1515,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1290262768"/>
@@ -1038,7 +1557,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1075,7 +1594,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1126,6 +1645,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1642,20 +2201,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:colOff>232262</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>98423</xdr:rowOff>
+      <xdr:rowOff>183903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>423333</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>187243</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>280866</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1675,6 +2750,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>354134</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>125455</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB8E703-DDF8-4471-8556-467010B22C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1952,27 +3065,27 @@
       <selection activeCell="C3" sqref="C3:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="1"/>
-    <col min="4" max="8" width="6.7265625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="8" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f>2.2/2</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1998,7 +3111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2027,7 +3140,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2056,7 +3169,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -2085,7 +3198,7 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -2114,7 +3227,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -2143,7 +3256,7 @@
         <v>11.17</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -2172,7 +3285,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -2201,7 +3314,7 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -2230,16 +3343,16 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D13" s="3" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2277,7 +3390,7 @@
         <v>14.12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -2315,7 +3428,7 @@
         <v>13.46</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -2353,7 +3466,7 @@
         <v>12.71</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -2391,7 +3504,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -2429,7 +3542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -2467,7 +3580,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -2505,7 +3618,7 @@
         <v>8.91</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -2543,7 +3656,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -2579,30 +3692,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE558D6-0013-4279-ABD3-653D2E89192F}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="78" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26:Q27"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="5.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="6.1796875" style="1" customWidth="1"/>
-    <col min="10" max="12" width="5.81640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.36328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="1"/>
+    <col min="5" max="9" width="6.140625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
     <col min="15" max="17" width="7" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>0.004/SQRT(3)</f>
         <v>2.3094010767585032E-3</v>
@@ -2610,14 +3723,14 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" s="6" t="str">
         <f>Pomiary!D1</f>
         <v>t, s</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2625,7 +3738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +3798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.141</v>
       </c>
@@ -2693,11 +3806,11 @@
         <f>Pomiary!B3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>Pomiary!C3</f>
         <v>0.501</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f>SQRT(C4)</f>
         <v>0.70781353476745557</v>
       </c>
@@ -2754,7 +3867,7 @@
         <v>1,4114(58)</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2762,11 +3875,11 @@
         <f>Pomiary!B4</f>
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>Pomiary!C4</f>
         <v>0.45100000000000001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" ref="D5:D11" si="0">SQRT(C5)</f>
         <v>0.67156533561523257</v>
       </c>
@@ -2823,7 +3936,7 @@
         <v>1,3458(58)</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>0.1/SQRT(3)</f>
         <v>5.7735026918962581E-2</v>
@@ -2832,11 +3945,11 @@
         <f>Pomiary!B5</f>
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>Pomiary!C5</f>
         <v>0.40100000000000002</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>0.63324560795950258</v>
       </c>
@@ -2893,7 +4006,7 @@
         <v>1,2706(57)</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2901,11 +4014,11 @@
         <f>Pomiary!B6</f>
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>Pomiary!C6</f>
         <v>0.35100000000000003</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>0.59245252974394502</v>
       </c>
@@ -2962,7 +4075,7 @@
         <v>1,1860(57)</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -2970,11 +4083,11 @@
         <f>Pomiary!B7</f>
         <v>5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>Pomiary!C7</f>
         <v>0.311</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>0.55767373974394741</v>
       </c>
@@ -3031,16 +4144,16 @@
         <v>1,1010(57)</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f>Pomiary!B8</f>
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>Pomiary!C8</f>
         <v>0.251</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0.5009990019950139</v>
       </c>
@@ -3097,16 +4210,16 @@
         <v>0,9986(58)</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f>Pomiary!B9</f>
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>Pomiary!C9</f>
         <v>0.20100000000000001</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>0.44833023542919792</v>
       </c>
@@ -3163,16 +4276,16 @@
         <v>0,8908(58)</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f>Pomiary!B10</f>
         <v>8</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>Pomiary!C10</f>
         <v>0.151</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>0.38858718455450897</v>
       </c>
@@ -3229,17 +4342,17 @@
         <v>0,7720(58)</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q15" s="2" t="s">
         <v>19</v>
       </c>
@@ -3247,7 +4360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q16" s="2">
         <f t="array" ref="Q16:R18">LINEST(O4:O11,D4:D11,TRUE,TRUE)</f>
         <v>2.0215077668947425</v>
@@ -3256,7 +4369,7 @@
         <v>-1.5241704997084327E-2</v>
       </c>
     </row>
-    <row r="17" spans="16:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P17" s="2" t="s">
         <v>21</v>
       </c>
@@ -3270,7 +4383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="16:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P18" s="2" t="s">
         <v>23</v>
       </c>
@@ -3281,7 +4394,7 @@
         <v>5.8143705495192922E-3</v>
       </c>
     </row>
-    <row r="21" spans="16:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P21" s="1" t="s">
         <v>24</v>
       </c>
@@ -3289,7 +4402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="16:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P22" s="1" t="s">
         <v>25</v>
       </c>
@@ -3300,8 +4413,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="P23" s="4">
+    <row r="23" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P23" s="3">
         <f>4*PI()*PI()/Q16/Q16</f>
         <v>9.66070694585515</v>
       </c>
@@ -3314,12 +4427,12 @@
         <v>9,66(18)</v>
       </c>
     </row>
-    <row r="25" spans="16:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="16:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P26" s="2" t="s">
         <v>29</v>
       </c>
@@ -3327,7 +4440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="16:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P27" s="2">
         <f>ABS(P23-9.8)</f>
         <v>0.13929305414485071</v>
@@ -3354,16 +4467,16 @@
       <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3380,14 +4493,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0.501</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.70781353476745557</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>6.5047008001907995E-3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3397,14 +4510,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>0.45100000000000001</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.67156533561523257</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>6.2495143811342286E-3</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3414,14 +4527,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>0.40100000000000002</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.63324560795950258</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>5.1027071246548652E-3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3431,14 +4544,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>0.35100000000000003</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.59245252974394502</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>4.0340441866691676E-3</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3448,14 +4561,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>0.311</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.55767373974394741</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>4.0340441866691676E-3</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3465,14 +4578,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>0.251</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.5009990019950139</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>6.5047008001904438E-3</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3482,14 +4595,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>0.20100000000000001</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.44833023542919792</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>6.2495143811338123E-3</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3499,14 +4612,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>0.151</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.38858718455450897</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>6.9871694912890733E-3</v>
       </c>
       <c r="D9" s="2" t="s">
